--- a/test_data/tiny_44147.ASC_out.xlsx
+++ b/test_data/tiny_44147.ASC_out.xlsx
@@ -40,19 +40,19 @@
     <t>°C</t>
   </si>
   <si>
-    <t xml:space="preserve">Client:Gaz de France
+    <t xml:space="preserve">Client:ABC
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Well No.:K/12-G8
+    <t xml:space="preserve">Well No.:ABC-8
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Field:K/12
+    <t xml:space="preserve">Field:ABC
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Location:K/12-G
+    <t xml:space="preserve">Location:ABC
 </t>
   </si>
   <si>
